--- a/Niveaux.xlsx
+++ b/Niveaux.xlsx
@@ -622,7 +622,7 @@
   <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -630,7 +630,7 @@
     <col min="1" max="1" width="24.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="50.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="5.7109375" customWidth="1"/>
     <col min="6" max="8" width="7.7109375" customWidth="1"/>
     <col min="9" max="13" width="5.7109375" customWidth="1"/>

--- a/Niveaux.xlsx
+++ b/Niveaux.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="90">
   <si>
     <t>Niveaux</t>
   </si>
@@ -274,6 +274,18 @@
   </si>
   <si>
     <t>Gros pilier central en terre, de l'eau et des piques</t>
+  </si>
+  <si>
+    <t>Tournez Moulin</t>
+  </si>
+  <si>
+    <t>TrnMln</t>
+  </si>
+  <si>
+    <t>Premier niveau de moulin</t>
+  </si>
+  <si>
+    <t>4-**</t>
   </si>
 </sst>
 </file>
@@ -619,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P21"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -745,16 +757,16 @@
         <v>16</v>
       </c>
       <c r="E3">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1200</v>
+        <v>3800</v>
       </c>
       <c r="H3">
-        <v>1600</v>
+        <v>4300</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -1420,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="H18">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -1573,6 +1585,50 @@
         <v>0</v>
       </c>
       <c r="N21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22">
+        <v>10</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>800</v>
+      </c>
+      <c r="H22">
+        <v>1200</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
         <v>0</v>
       </c>
     </row>

--- a/Niveaux.xlsx
+++ b/Niveaux.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="106">
   <si>
     <t>Niveaux</t>
   </si>
@@ -286,6 +286,54 @@
   </si>
   <si>
     <t>4-**</t>
+  </si>
+  <si>
+    <t>Haute Marche</t>
+  </si>
+  <si>
+    <t>HtMrch</t>
+  </si>
+  <si>
+    <t>Deux hautes marches puis eau, avec pièces à récupérer</t>
+  </si>
+  <si>
+    <t>Inside</t>
+  </si>
+  <si>
+    <t>Insd</t>
+  </si>
+  <si>
+    <t>Deux slides direct, passage en haut pour pièces</t>
+  </si>
+  <si>
+    <t>Coince</t>
+  </si>
+  <si>
+    <t>Cnc</t>
+  </si>
+  <si>
+    <t>Enfermé dans une caverne, porte en haut</t>
+  </si>
+  <si>
+    <t>Sortie Infernale</t>
+  </si>
+  <si>
+    <t>SrtInf</t>
+  </si>
+  <si>
+    <t>Caverne avec 3 plateforme mobile</t>
+  </si>
+  <si>
+    <t>4-***</t>
+  </si>
+  <si>
+    <t>Sol Traitre</t>
+  </si>
+  <si>
+    <t>SlTrt</t>
+  </si>
+  <si>
+    <t>Bouton et saut vers porte horzontal au dessus de piques</t>
   </si>
 </sst>
 </file>
@@ -631,10 +679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -716,10 +764,10 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H2">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="I2">
         <v>3</v>
@@ -763,10 +811,10 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="H3">
-        <v>4300</v>
+        <v>5000</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -810,10 +858,10 @@
         <v>0</v>
       </c>
       <c r="G4">
+        <v>1200</v>
+      </c>
+      <c r="H4">
         <v>1400</v>
-      </c>
-      <c r="H4">
-        <v>1600</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -857,10 +905,10 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="H5">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="I5">
         <v>4</v>
@@ -904,10 +952,10 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="H6">
-        <v>2600</v>
+        <v>1000</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -992,10 +1040,10 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>500</v>
+        <v>1700</v>
       </c>
       <c r="H8">
-        <v>1450</v>
+        <v>1700</v>
       </c>
       <c r="I8">
         <v>2</v>
@@ -1036,10 +1084,10 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1900</v>
+        <v>1500</v>
       </c>
       <c r="H9">
-        <v>2100</v>
+        <v>1800</v>
       </c>
       <c r="I9">
         <v>4</v>
@@ -1080,10 +1128,10 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="H10">
-        <v>2400</v>
+        <v>1900</v>
       </c>
       <c r="I10">
         <v>6</v>
@@ -1127,7 +1175,7 @@
         <v>1800</v>
       </c>
       <c r="H11">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="I11">
         <v>3</v>
@@ -1168,10 +1216,10 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="H12">
-        <v>3100</v>
+        <v>2500</v>
       </c>
       <c r="I12">
         <v>3</v>
@@ -1215,7 +1263,7 @@
         <v>2000</v>
       </c>
       <c r="H13">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="I13">
         <v>5</v>
@@ -1259,7 +1307,7 @@
         <v>2000</v>
       </c>
       <c r="H14">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="I14">
         <v>5</v>
@@ -1300,10 +1348,10 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1900</v>
+        <v>1200</v>
       </c>
       <c r="H15">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="I15">
         <v>4</v>
@@ -1344,10 +1392,10 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="H16">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="I16">
         <v>3</v>
@@ -1388,10 +1436,10 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="H17">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="I17">
         <v>2</v>
@@ -1432,10 +1480,10 @@
         <v>0</v>
       </c>
       <c r="G18">
+        <v>1300</v>
+      </c>
+      <c r="H18">
         <v>1500</v>
-      </c>
-      <c r="H18">
-        <v>1900</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -1479,7 +1527,7 @@
         <v>1900</v>
       </c>
       <c r="H19">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1520,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2700</v>
+        <v>2000</v>
       </c>
       <c r="H20">
         <v>3000</v>
@@ -1564,10 +1612,10 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="H21">
-        <v>1900</v>
+        <v>1600</v>
       </c>
       <c r="I21">
         <v>3</v>
@@ -1608,10 +1656,10 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="H22">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -1629,6 +1677,226 @@
         <v>1</v>
       </c>
       <c r="N22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23">
+        <v>10</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>1800</v>
+      </c>
+      <c r="H23">
+        <v>2200</v>
+      </c>
+      <c r="I23">
+        <v>4</v>
+      </c>
+      <c r="J23">
+        <v>2</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E24">
+        <v>15</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>3500</v>
+      </c>
+      <c r="H24">
+        <v>4200</v>
+      </c>
+      <c r="I24">
+        <v>4</v>
+      </c>
+      <c r="J24">
+        <v>2</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E25">
+        <v>15</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>2500</v>
+      </c>
+      <c r="H25">
+        <v>3000</v>
+      </c>
+      <c r="I25">
+        <v>4</v>
+      </c>
+      <c r="J25">
+        <v>4</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>2</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E26">
+        <v>40</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>3000</v>
+      </c>
+      <c r="H26">
+        <v>4000</v>
+      </c>
+      <c r="I26">
+        <v>3</v>
+      </c>
+      <c r="J26">
+        <v>3</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>4</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E27">
+        <v>10</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>1000</v>
+      </c>
+      <c r="H27">
+        <v>1500</v>
+      </c>
+      <c r="I27">
+        <v>3</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
         <v>0</v>
       </c>
     </row>

--- a/Niveaux.xlsx
+++ b/Niveaux.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="132">
   <si>
     <t>Niveaux</t>
   </si>
@@ -324,9 +324,6 @@
     <t>Caverne avec 3 plateforme mobile</t>
   </si>
   <si>
-    <t>4-***</t>
-  </si>
-  <si>
     <t>Sol Traitre</t>
   </si>
   <si>
@@ -334,6 +331,87 @@
   </si>
   <si>
     <t>Bouton et saut vers porte horzontal au dessus de piques</t>
+  </si>
+  <si>
+    <t>4-****</t>
+  </si>
+  <si>
+    <t>Raccourci</t>
+  </si>
+  <si>
+    <t>Rcrc</t>
+  </si>
+  <si>
+    <t>Tunnel avec pointes à traverser</t>
+  </si>
+  <si>
+    <t>Entre Deux</t>
+  </si>
+  <si>
+    <t>EtDx</t>
+  </si>
+  <si>
+    <t>Deux piliers, pièces entre les deux</t>
+  </si>
+  <si>
+    <t>Fais un Choix</t>
+  </si>
+  <si>
+    <t>Fc1Chx</t>
+  </si>
+  <si>
+    <t>Trois petites plateforme, un endroit pou un slide, un moulin et une porte automarique</t>
+  </si>
+  <si>
+    <t>TrvCle</t>
+  </si>
+  <si>
+    <t>Un bouton pour ouvrir une porte situé au fond d'une caverne</t>
+  </si>
+  <si>
+    <t>Trouve la clé</t>
+  </si>
+  <si>
+    <t>A Travers</t>
+  </si>
+  <si>
+    <t>Atrvs</t>
+  </si>
+  <si>
+    <t>Choix entre passer en haut et traverser une caverne et déclencher une porte</t>
+  </si>
+  <si>
+    <t>Pas si vite</t>
+  </si>
+  <si>
+    <t>PsSvt</t>
+  </si>
+  <si>
+    <t>Fin dans el dos du ninja, pas de demi tour possible</t>
+  </si>
+  <si>
+    <t>Grotte Périlleuse</t>
+  </si>
+  <si>
+    <t>FGrtPrlls</t>
+  </si>
+  <si>
+    <t>Grotte avec 3 plafonds</t>
+  </si>
+  <si>
+    <t>Compte (33 niveaux)!</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>**</t>
+  </si>
+  <si>
+    <t>***</t>
+  </si>
+  <si>
+    <t>****</t>
   </si>
 </sst>
 </file>
@@ -679,10 +757,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P27"/>
+  <dimension ref="A1:U34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -690,14 +768,19 @@
     <col min="1" max="1" width="24.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="5.7109375" customWidth="1"/>
     <col min="6" max="8" width="7.7109375" customWidth="1"/>
     <col min="9" max="13" width="5.7109375" customWidth="1"/>
     <col min="14" max="14" width="7" customWidth="1"/>
+    <col min="17" max="17" width="7" customWidth="1"/>
+    <col min="18" max="18" width="4.7109375" customWidth="1"/>
+    <col min="19" max="19" width="6" customWidth="1"/>
+    <col min="20" max="20" width="5.7109375" customWidth="1"/>
+    <col min="21" max="21" width="5.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="45">
+    <row r="1" spans="1:21" ht="45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -744,7 +827,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:21">
       <c r="A2" s="1" t="s">
         <v>31</v>
       </c>
@@ -791,7 +874,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:21">
       <c r="A3" s="1" t="s">
         <v>32</v>
       </c>
@@ -838,7 +921,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:21">
       <c r="A4" s="1" t="s">
         <v>33</v>
       </c>
@@ -885,7 +968,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:21">
       <c r="A5" s="1" t="s">
         <v>34</v>
       </c>
@@ -932,7 +1015,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:21">
       <c r="A6" s="1" t="s">
         <v>35</v>
       </c>
@@ -976,7 +1059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:21">
       <c r="A7" s="1" t="s">
         <v>36</v>
       </c>
@@ -1020,7 +1103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:21">
       <c r="A8" s="1" t="s">
         <v>37</v>
       </c>
@@ -1064,7 +1147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:21">
       <c r="A9" s="1" t="s">
         <v>38</v>
       </c>
@@ -1108,7 +1191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:21">
       <c r="A10" s="1" t="s">
         <v>39</v>
       </c>
@@ -1152,7 +1235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:21">
       <c r="A11" s="1" t="s">
         <v>40</v>
       </c>
@@ -1195,8 +1278,23 @@
       <c r="N11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="P11" t="s">
+        <v>127</v>
+      </c>
+      <c r="R11" t="s">
+        <v>128</v>
+      </c>
+      <c r="S11" t="s">
+        <v>129</v>
+      </c>
+      <c r="T11" t="s">
+        <v>130</v>
+      </c>
+      <c r="U11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
@@ -1239,8 +1337,26 @@
       <c r="N12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>16</v>
+      </c>
+      <c r="R12">
+        <v>6</v>
+      </c>
+      <c r="S12">
+        <v>9</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" s="1" t="s">
         <v>42</v>
       </c>
@@ -1283,8 +1399,26 @@
       <c r="N13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="P13">
+        <v>2</v>
+      </c>
+      <c r="Q13">
+        <v>5</v>
+      </c>
+      <c r="R13">
+        <v>2</v>
+      </c>
+      <c r="S13">
+        <v>3</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" s="1" t="s">
         <v>43</v>
       </c>
@@ -1327,8 +1461,26 @@
       <c r="N14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="P14">
+        <v>3</v>
+      </c>
+      <c r="Q14">
+        <v>8</v>
+      </c>
+      <c r="R14">
+        <v>2</v>
+      </c>
+      <c r="S14">
+        <v>6</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15" s="1" t="s">
         <v>44</v>
       </c>
@@ -1371,8 +1523,26 @@
       <c r="N15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="P15">
+        <v>4</v>
+      </c>
+      <c r="Q15">
+        <v>4</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <v>2</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16" s="1" t="s">
         <v>45</v>
       </c>
@@ -1820,7 +1990,7 @@
         <v>100</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>101</v>
@@ -1858,16 +2028,16 @@
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E27">
         <v>10</v>
@@ -1898,6 +2068,314 @@
       </c>
       <c r="N27">
         <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E28">
+        <v>10</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>1000</v>
+      </c>
+      <c r="H28">
+        <v>2500</v>
+      </c>
+      <c r="I28">
+        <v>3</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E29">
+        <v>10</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>1000</v>
+      </c>
+      <c r="H29">
+        <v>1600</v>
+      </c>
+      <c r="I29">
+        <v>2</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E30">
+        <v>10</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>2500</v>
+      </c>
+      <c r="H30">
+        <v>3000</v>
+      </c>
+      <c r="I30">
+        <v>4</v>
+      </c>
+      <c r="J30">
+        <v>2</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E31">
+        <v>20</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>2500</v>
+      </c>
+      <c r="H31">
+        <v>3200</v>
+      </c>
+      <c r="I31">
+        <v>2</v>
+      </c>
+      <c r="J31">
+        <v>2</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E32">
+        <v>10</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>2500</v>
+      </c>
+      <c r="H32">
+        <v>3000</v>
+      </c>
+      <c r="I32">
+        <v>3</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E33">
+        <v>10</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>1700</v>
+      </c>
+      <c r="H33">
+        <v>2000</v>
+      </c>
+      <c r="I33">
+        <v>4</v>
+      </c>
+      <c r="J33">
+        <v>4</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E34">
+        <v>15</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>2000</v>
+      </c>
+      <c r="H34">
+        <v>2800</v>
+      </c>
+      <c r="I34">
+        <v>4</v>
+      </c>
+      <c r="J34">
+        <v>4</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Niveaux.xlsx
+++ b/Niveaux.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="158">
   <si>
     <t>Niveaux</t>
   </si>
@@ -282,9 +282,6 @@
     <t>TrnMln</t>
   </si>
   <si>
-    <t>Premier niveau de moulin</t>
-  </si>
-  <si>
     <t>4-**</t>
   </si>
   <si>
@@ -399,9 +396,6 @@
     <t>Grotte avec 3 plafonds</t>
   </si>
   <si>
-    <t>Compte (33 niveaux)!</t>
-  </si>
-  <si>
     <t>*</t>
   </si>
   <si>
@@ -412,6 +406,90 @@
   </si>
   <si>
     <t>****</t>
+  </si>
+  <si>
+    <t>Portes Mystères</t>
+  </si>
+  <si>
+    <t>PrtMstr</t>
+  </si>
+  <si>
+    <t>Sucession de portes avec plusieurs switch</t>
+  </si>
+  <si>
+    <t>Etape</t>
+  </si>
+  <si>
+    <t>NB</t>
+  </si>
+  <si>
+    <t>Des hauts et des bas</t>
+  </si>
+  <si>
+    <t>DHtDBs</t>
+  </si>
+  <si>
+    <t>glissades et sauts enchainés 2 fois</t>
+  </si>
+  <si>
+    <t>Dessus Dessous</t>
+  </si>
+  <si>
+    <t>DssDss</t>
+  </si>
+  <si>
+    <t>Plateforme mouvante pour revenir derrière en haut</t>
+  </si>
+  <si>
+    <t>Moulin à eau</t>
+  </si>
+  <si>
+    <t>MlnAO</t>
+  </si>
+  <si>
+    <t>Engrenage</t>
+  </si>
+  <si>
+    <t>Engrn</t>
+  </si>
+  <si>
+    <t>Deux portes et deux moulins l'un au dessus de l'autre</t>
+  </si>
+  <si>
+    <t>Encadré</t>
+  </si>
+  <si>
+    <t>Encdr</t>
+  </si>
+  <si>
+    <t>3 moulins</t>
+  </si>
+  <si>
+    <t>Un moulin entouré</t>
+  </si>
+  <si>
+    <t>Portes en folie</t>
+  </si>
+  <si>
+    <t>PrtFli</t>
+  </si>
+  <si>
+    <t>Un moulin au dessus de l'eau et une porte automatique</t>
+  </si>
+  <si>
+    <t>3 portes autos et 3 portes à ouvrir, avec un seul timer</t>
+  </si>
+  <si>
+    <t>Nemesis</t>
+  </si>
+  <si>
+    <t>Nmss</t>
+  </si>
+  <si>
+    <t>4-***</t>
+  </si>
+  <si>
+    <t>5 moulins et des auts autour</t>
   </si>
 </sst>
 </file>
@@ -757,10 +835,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U34"/>
+  <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="T16" sqref="T16"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -768,7 +846,7 @@
     <col min="1" max="1" width="24.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="37" style="1" customWidth="1"/>
     <col min="5" max="5" width="5.7109375" customWidth="1"/>
     <col min="6" max="8" width="7.7109375" customWidth="1"/>
     <col min="9" max="13" width="5.7109375" customWidth="1"/>
@@ -1279,19 +1357,22 @@
         <v>0</v>
       </c>
       <c r="P11" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>134</v>
+      </c>
+      <c r="R11" t="s">
+        <v>126</v>
+      </c>
+      <c r="S11" t="s">
         <v>127</v>
       </c>
-      <c r="R11" t="s">
+      <c r="T11" t="s">
         <v>128</v>
       </c>
-      <c r="S11" t="s">
+      <c r="U11" t="s">
         <v>129</v>
-      </c>
-      <c r="T11" t="s">
-        <v>130</v>
-      </c>
-      <c r="U11" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -1341,6 +1422,7 @@
         <v>1</v>
       </c>
       <c r="Q12">
+        <f>SUM(R12:U12)</f>
         <v>16</v>
       </c>
       <c r="R12">
@@ -1403,13 +1485,14 @@
         <v>2</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <f t="shared" ref="Q13:Q14" si="0">SUM(R13:U13)</f>
+        <v>6</v>
       </c>
       <c r="R13">
         <v>2</v>
       </c>
       <c r="S13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T13">
         <v>0</v>
@@ -1465,10 +1548,11 @@
         <v>3</v>
       </c>
       <c r="Q14">
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="R14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S14">
         <v>6</v>
@@ -1527,16 +1611,17 @@
         <v>4</v>
       </c>
       <c r="Q15">
+        <f>SUM(R15:U15)</f>
+        <v>10</v>
+      </c>
+      <c r="R15">
         <v>4</v>
       </c>
-      <c r="R15">
-        <v>1</v>
-      </c>
       <c r="S15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U15">
         <v>1</v>
@@ -1585,6 +1670,10 @@
       <c r="N16">
         <v>0</v>
       </c>
+      <c r="Q16">
+        <f>SUM(Q12:Q15)</f>
+        <v>41</v>
+      </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1" t="s">
@@ -1814,10 +1903,10 @@
         <v>87</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>88</v>
+        <v>148</v>
       </c>
       <c r="E22">
         <v>10</v>
@@ -1852,16 +1941,16 @@
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E23">
         <v>10</v>
@@ -1896,16 +1985,16 @@
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E24">
         <v>15</v>
@@ -1940,16 +2029,16 @@
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E25">
         <v>15</v>
@@ -1984,16 +2073,16 @@
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="E26">
         <v>40</v>
@@ -2028,16 +2117,16 @@
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E27">
         <v>10</v>
@@ -2072,16 +2161,16 @@
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E28">
         <v>10</v>
@@ -2116,16 +2205,16 @@
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E29">
         <v>10</v>
@@ -2160,16 +2249,16 @@
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="E30">
         <v>10</v>
@@ -2204,16 +2293,16 @@
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E31">
         <v>20</v>
@@ -2248,16 +2337,16 @@
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E32">
         <v>10</v>
@@ -2292,16 +2381,16 @@
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E33">
         <v>10</v>
@@ -2336,16 +2425,16 @@
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E34">
         <v>15</v>
@@ -2376,6 +2465,358 @@
       </c>
       <c r="N34">
         <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E35">
+        <v>15</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>2000</v>
+      </c>
+      <c r="H35">
+        <v>2500</v>
+      </c>
+      <c r="I35">
+        <v>5</v>
+      </c>
+      <c r="J35">
+        <v>2</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E36">
+        <v>10</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>2000</v>
+      </c>
+      <c r="H36">
+        <v>2300</v>
+      </c>
+      <c r="I36">
+        <v>2</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E37">
+        <v>15</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>2400</v>
+      </c>
+      <c r="H37">
+        <v>3200</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>3</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E38">
+        <v>10</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>1000</v>
+      </c>
+      <c r="H38">
+        <v>1500</v>
+      </c>
+      <c r="I38">
+        <v>2</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>2</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E39">
+        <v>15</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>1500</v>
+      </c>
+      <c r="H39">
+        <v>1800</v>
+      </c>
+      <c r="I39">
+        <v>2</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>3</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E40">
+        <v>10</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>2200</v>
+      </c>
+      <c r="H40">
+        <v>2500</v>
+      </c>
+      <c r="I40">
+        <v>3</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E41">
+        <v>10</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>1200</v>
+      </c>
+      <c r="H41">
+        <v>1500</v>
+      </c>
+      <c r="I41">
+        <v>2</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E42">
+        <v>20</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>3000</v>
+      </c>
+      <c r="H42">
+        <v>3700</v>
+      </c>
+      <c r="I42">
+        <v>5</v>
+      </c>
+      <c r="J42">
+        <v>2</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>2</v>
+      </c>
+      <c r="M42">
+        <v>2</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Niveaux.xlsx
+++ b/Niveaux.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="176">
   <si>
     <t>Niveaux</t>
   </si>
@@ -490,6 +490,60 @@
   </si>
   <si>
     <t>5 moulins et des auts autour</t>
+  </si>
+  <si>
+    <t>Labyrinthe</t>
+  </si>
+  <si>
+    <t>Lbyrth</t>
+  </si>
+  <si>
+    <t>Dans une caverne et remontéedescente, une porte</t>
+  </si>
+  <si>
+    <t>Piques Epiques</t>
+  </si>
+  <si>
+    <t>PqEpq</t>
+  </si>
+  <si>
+    <t>Une montée tranquile et une avec piques</t>
+  </si>
+  <si>
+    <t>Temps Simple</t>
+  </si>
+  <si>
+    <t>TpsSpl</t>
+  </si>
+  <si>
+    <t>Symétrie: deux plateformes, deux moulins</t>
+  </si>
+  <si>
+    <t>Trnqt</t>
+  </si>
+  <si>
+    <t>Tourniquet</t>
+  </si>
+  <si>
+    <t>Grotte en deux parties avec un tourniquet</t>
+  </si>
+  <si>
+    <t>Meunier</t>
+  </si>
+  <si>
+    <t>Menr</t>
+  </si>
+  <si>
+    <t>Plein de moulin, un chemin rapide, un par en haut</t>
+  </si>
+  <si>
+    <t>En Rythme</t>
+  </si>
+  <si>
+    <t>Erythm</t>
+  </si>
+  <si>
+    <t>3 pièges au plafond</t>
   </si>
 </sst>
 </file>
@@ -835,10 +889,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U42"/>
+  <dimension ref="A1:U48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -851,6 +905,7 @@
     <col min="6" max="8" width="7.7109375" customWidth="1"/>
     <col min="9" max="13" width="5.7109375" customWidth="1"/>
     <col min="14" max="14" width="7" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" customWidth="1"/>
     <col min="17" max="17" width="7" customWidth="1"/>
     <col min="18" max="18" width="4.7109375" customWidth="1"/>
     <col min="19" max="19" width="6" customWidth="1"/>
@@ -1549,13 +1604,13 @@
       </c>
       <c r="Q14">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="R14">
         <v>3</v>
       </c>
       <c r="S14">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T14">
         <v>0</v>
@@ -1612,13 +1667,13 @@
       </c>
       <c r="Q15">
         <f>SUM(R15:U15)</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="R15">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S15">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T15">
         <v>1</v>
@@ -1672,7 +1727,7 @@
       </c>
       <c r="Q16">
         <f>SUM(Q12:Q15)</f>
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -2816,6 +2871,270 @@
         <v>2</v>
       </c>
       <c r="N42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E43">
+        <v>15</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>3500</v>
+      </c>
+      <c r="H43">
+        <v>1250</v>
+      </c>
+      <c r="I43">
+        <v>5</v>
+      </c>
+      <c r="J43">
+        <v>3</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E44">
+        <v>10</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>2300</v>
+      </c>
+      <c r="H44">
+        <v>3500</v>
+      </c>
+      <c r="I44">
+        <v>5</v>
+      </c>
+      <c r="J44">
+        <v>2</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E45">
+        <v>10</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>1500</v>
+      </c>
+      <c r="H45">
+        <v>1700</v>
+      </c>
+      <c r="I45">
+        <v>2</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>1</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E46">
+        <v>20</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>3000</v>
+      </c>
+      <c r="H46">
+        <v>3500</v>
+      </c>
+      <c r="I46">
+        <v>4</v>
+      </c>
+      <c r="J46">
+        <v>2</v>
+      </c>
+      <c r="K46">
+        <v>2</v>
+      </c>
+      <c r="L46">
+        <v>2</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E47">
+        <v>10</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>1900</v>
+      </c>
+      <c r="H47">
+        <v>2500</v>
+      </c>
+      <c r="I47">
+        <v>3</v>
+      </c>
+      <c r="J47">
+        <v>2</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E48">
+        <v>10</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>1700</v>
+      </c>
+      <c r="H48">
+        <v>1800</v>
+      </c>
+      <c r="I48">
+        <v>3</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>3</v>
+      </c>
+      <c r="N48">
         <v>0</v>
       </c>
     </row>

--- a/Niveaux.xlsx
+++ b/Niveaux.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="215">
   <si>
     <t>Niveaux</t>
   </si>
@@ -544,6 +544,123 @@
   </si>
   <si>
     <t>3 pièges au plafond</t>
+  </si>
+  <si>
+    <t>Clé des champs</t>
+  </si>
+  <si>
+    <t>CldChp</t>
+  </si>
+  <si>
+    <t>Plusieurs parties avec de sportes où on doit faire demi tour</t>
+  </si>
+  <si>
+    <t>Fosse aux pièces</t>
+  </si>
+  <si>
+    <t>FssOPc</t>
+  </si>
+  <si>
+    <t>Une fosse avec des piques et des pièces</t>
+  </si>
+  <si>
+    <t>TtOFd</t>
+  </si>
+  <si>
+    <t>Tout au fond</t>
+  </si>
+  <si>
+    <t>Plongée dans une caverne avec plafonds piégés, platefrome, portes, et remontée</t>
+  </si>
+  <si>
+    <t>Moustachios</t>
+  </si>
+  <si>
+    <t>Mstchs</t>
+  </si>
+  <si>
+    <t>Un bonhomme à moustache avec un moulin</t>
+  </si>
+  <si>
+    <t>Or en barre</t>
+  </si>
+  <si>
+    <t>OrEBr</t>
+  </si>
+  <si>
+    <t>Un slide, des pièce au bout, demi tour, remonteée sur plate-forme</t>
+  </si>
+  <si>
+    <t>Hors de Portée</t>
+  </si>
+  <si>
+    <t>HsdPt</t>
+  </si>
+  <si>
+    <t>Deux portes puis deux sauts pour revenir sur la fin au dessus</t>
+  </si>
+  <si>
+    <t>Suivre le fil</t>
+  </si>
+  <si>
+    <t>SvrFl</t>
+  </si>
+  <si>
+    <t>Cinq moulin, 6 plateformes au dessus de l'eau, descente et montée</t>
+  </si>
+  <si>
+    <t>Ouvre-boite</t>
+  </si>
+  <si>
+    <t>OvrBt</t>
+  </si>
+  <si>
+    <t>Depart dans caverne, bouton pour porte, revient, remonte, deux portes en haut</t>
+  </si>
+  <si>
+    <t>Splo</t>
+  </si>
+  <si>
+    <t>Spelunky</t>
+  </si>
+  <si>
+    <t>Caverne spéléologue avec plusieurs slides</t>
+  </si>
+  <si>
+    <t>Tomb Raider</t>
+  </si>
+  <si>
+    <t>TmbRd</t>
+  </si>
+  <si>
+    <t>Caverne avec piques qui se déclenchent</t>
+  </si>
+  <si>
+    <t>(Les) Deux Mondes</t>
+  </si>
+  <si>
+    <t>LDxMds</t>
+  </si>
+  <si>
+    <t>Deux parties, uen avec 5 minis moulins, l'autre de spiques</t>
+  </si>
+  <si>
+    <t>Timing</t>
+  </si>
+  <si>
+    <t>Tmg</t>
+  </si>
+  <si>
+    <t>Porte puis plateforme puis deux moulins</t>
+  </si>
+  <si>
+    <t>Bon Placement</t>
+  </si>
+  <si>
+    <t>BnPlcmt</t>
+  </si>
+  <si>
+    <t>Grande montée, possibilité saut vers pièces</t>
   </si>
 </sst>
 </file>
@@ -889,10 +1006,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U48"/>
+  <dimension ref="A1:U61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1027,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="H3">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -1541,13 +1658,13 @@
       </c>
       <c r="Q13">
         <f t="shared" ref="Q13:Q14" si="0">SUM(R13:U13)</f>
+        <v>8</v>
+      </c>
+      <c r="R13">
+        <v>2</v>
+      </c>
+      <c r="S13">
         <v>6</v>
-      </c>
-      <c r="R13">
-        <v>2</v>
-      </c>
-      <c r="S13">
-        <v>4</v>
       </c>
       <c r="T13">
         <v>0</v>
@@ -1604,13 +1721,13 @@
       </c>
       <c r="Q14">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="R14">
         <v>3</v>
       </c>
       <c r="S14">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="T14">
         <v>0</v>
@@ -1667,16 +1784,16 @@
       </c>
       <c r="Q15">
         <f>SUM(R15:U15)</f>
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="R15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S15">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="T15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U15">
         <v>1</v>
@@ -1727,7 +1844,7 @@
       </c>
       <c r="Q16">
         <f>SUM(Q12:Q15)</f>
-        <v>47</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -3135,6 +3252,578 @@
         <v>3</v>
       </c>
       <c r="N48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="A49" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E49">
+        <v>20</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>2700</v>
+      </c>
+      <c r="H49">
+        <v>3000</v>
+      </c>
+      <c r="I49">
+        <v>5</v>
+      </c>
+      <c r="J49">
+        <v>2</v>
+      </c>
+      <c r="K49">
+        <v>2</v>
+      </c>
+      <c r="L49">
+        <v>2</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="A50" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E50">
+        <v>10</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>3000</v>
+      </c>
+      <c r="H50">
+        <v>3200</v>
+      </c>
+      <c r="I50">
+        <v>4</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="L50">
+        <v>2</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="A51" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E51">
+        <v>30</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>3000</v>
+      </c>
+      <c r="H51">
+        <v>3800</v>
+      </c>
+      <c r="I51">
+        <v>6</v>
+      </c>
+      <c r="J51">
+        <v>4</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51">
+        <v>1</v>
+      </c>
+      <c r="M51">
+        <v>3</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="A52" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E52">
+        <v>10</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>1500</v>
+      </c>
+      <c r="H52">
+        <v>2200</v>
+      </c>
+      <c r="I52">
+        <v>3</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="A53" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E53">
+        <v>15</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>3400</v>
+      </c>
+      <c r="H53">
+        <v>3800</v>
+      </c>
+      <c r="I53">
+        <v>4</v>
+      </c>
+      <c r="J53">
+        <v>4</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+      <c r="L53">
+        <v>1</v>
+      </c>
+      <c r="M53">
+        <v>1</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="A54" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E54">
+        <v>10</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>2000</v>
+      </c>
+      <c r="H54">
+        <v>2800</v>
+      </c>
+      <c r="I54">
+        <v>3</v>
+      </c>
+      <c r="J54">
+        <v>3</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>2</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="A55" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E55">
+        <v>10</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>2200</v>
+      </c>
+      <c r="H55">
+        <v>2500</v>
+      </c>
+      <c r="I55">
+        <v>3</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>1</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="A56" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E56">
+        <v>10</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>2000</v>
+      </c>
+      <c r="H56">
+        <v>2500</v>
+      </c>
+      <c r="I56">
+        <v>5</v>
+      </c>
+      <c r="J56">
+        <v>2</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="L56">
+        <v>1</v>
+      </c>
+      <c r="M56">
+        <v>2</v>
+      </c>
+      <c r="N56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="A57" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E57">
+        <v>20</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>2500</v>
+      </c>
+      <c r="H57">
+        <v>3000</v>
+      </c>
+      <c r="I57">
+        <v>2</v>
+      </c>
+      <c r="J57">
+        <v>2</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="A58" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E58">
+        <v>20</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>3000</v>
+      </c>
+      <c r="H58">
+        <v>3700</v>
+      </c>
+      <c r="I58">
+        <v>4</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58">
+        <v>1</v>
+      </c>
+      <c r="M58">
+        <v>1</v>
+      </c>
+      <c r="N58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="A59" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E59">
+        <v>10</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>2700</v>
+      </c>
+      <c r="H59">
+        <v>3100</v>
+      </c>
+      <c r="I59">
+        <v>4</v>
+      </c>
+      <c r="J59">
+        <v>4</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>1</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
+      <c r="A60" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E60">
+        <v>20</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>2300</v>
+      </c>
+      <c r="H60">
+        <v>2700</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>5</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="A61" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E61">
+        <v>15</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>2350</v>
+      </c>
+      <c r="H61">
+        <v>2500</v>
+      </c>
+      <c r="I61">
+        <v>7</v>
+      </c>
+      <c r="J61">
+        <v>3</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
+      <c r="N61">
         <v>0</v>
       </c>
     </row>

--- a/Niveaux.xlsx
+++ b/Niveaux.xlsx
@@ -1008,8 +1008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1017,7 +1017,7 @@
     <col min="1" max="1" width="24.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="37" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="5.7109375" customWidth="1"/>
     <col min="6" max="8" width="7.7109375" customWidth="1"/>
     <col min="9" max="13" width="5.7109375" customWidth="1"/>
@@ -1079,16 +1079,16 @@
     </row>
     <row r="2" spans="1:21">
       <c r="A2" s="1" t="s">
-        <v>31</v>
+        <v>206</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>68</v>
+        <v>207</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>22</v>
+        <v>208</v>
       </c>
       <c r="E2">
         <v>10</v>
@@ -1097,16 +1097,16 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1300</v>
+        <v>2700</v>
       </c>
       <c r="H2">
-        <v>1600</v>
+        <v>3100</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -1126,19 +1126,19 @@
     </row>
     <row r="3" spans="1:21">
       <c r="A3" s="1" t="s">
-        <v>32</v>
+        <v>117</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>67</v>
+        <v>118</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="E3">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>3000</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3" t="s">
         <v>62</v>
@@ -1173,16 +1173,16 @@
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>10</v>
@@ -1191,22 +1191,22 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="H4">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -1220,34 +1220,34 @@
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="1" t="s">
-        <v>34</v>
+        <v>212</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>69</v>
+        <v>213</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>23</v>
+        <v>214</v>
       </c>
       <c r="E5">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2000</v>
+        <v>2350</v>
       </c>
       <c r="H5">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="I5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1267,40 +1267,40 @@
     </row>
     <row r="6" spans="1:21">
       <c r="A6" s="1" t="s">
-        <v>35</v>
+        <v>176</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>70</v>
+        <v>177</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>48</v>
+        <v>178</v>
       </c>
       <c r="E6">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1600</v>
+        <v>2700</v>
       </c>
       <c r="H6">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -1311,40 +1311,40 @@
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="1" t="s">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="E7">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="H7">
-        <v>1300</v>
+        <v>3000</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -1355,40 +1355,40 @@
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E8">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1700</v>
+        <v>2500</v>
       </c>
       <c r="H8">
-        <v>1700</v>
+        <v>3000</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -1399,16 +1399,16 @@
     </row>
     <row r="9" spans="1:21">
       <c r="A9" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>85</v>
+        <v>11</v>
       </c>
       <c r="E9">
         <v>10</v>
@@ -1417,22 +1417,22 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="H9">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="I9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -1443,16 +1443,16 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>135</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>73</v>
+        <v>136</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>13</v>
+        <v>137</v>
       </c>
       <c r="E10">
         <v>10</v>
@@ -1461,13 +1461,13 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1400</v>
+        <v>2000</v>
       </c>
       <c r="H10">
-        <v>1900</v>
+        <v>2300</v>
       </c>
       <c r="I10">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1482,40 +1482,40 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="1" t="s">
-        <v>40</v>
+        <v>138</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>74</v>
+        <v>139</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="E11">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="H11">
-        <v>2200</v>
+        <v>3200</v>
       </c>
       <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
         <v>3</v>
       </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
       <c r="K11">
         <v>0</v>
       </c>
@@ -1523,10 +1523,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="s">
         <v>133</v>
@@ -1549,19 +1549,19 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1570,25 +1570,25 @@
         <v>2000</v>
       </c>
       <c r="H12">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="I12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>1</v>
@@ -1612,16 +1612,16 @@
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="1" t="s">
-        <v>42</v>
+        <v>173</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>76</v>
+        <v>174</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>15</v>
+        <v>175</v>
       </c>
       <c r="E13">
         <v>10</v>
@@ -1630,25 +1630,25 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="H13">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="I13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1675,16 +1675,16 @@
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="1" t="s">
-        <v>43</v>
+        <v>146</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>77</v>
+        <v>147</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>18</v>
+        <v>149</v>
       </c>
       <c r="E14">
         <v>10</v>
@@ -1693,19 +1693,19 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="H14">
-        <v>3800</v>
+        <v>2500</v>
       </c>
       <c r="I14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1714,7 +1714,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14">
         <v>3</v>
@@ -1738,31 +1738,31 @@
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="1" t="s">
-        <v>44</v>
+        <v>143</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>78</v>
+        <v>144</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>27</v>
+        <v>145</v>
       </c>
       <c r="E15">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="H15">
-        <v>2100</v>
+        <v>1800</v>
       </c>
       <c r="I15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1774,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1801,16 +1801,16 @@
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="E16">
         <v>10</v>
@@ -1819,19 +1819,19 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="H16">
         <v>2000</v>
       </c>
       <c r="I16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16">
         <v>1</v>
@@ -1849,16 +1849,16 @@
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1" t="s">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>24</v>
+        <v>110</v>
       </c>
       <c r="E17">
         <v>10</v>
@@ -1870,7 +1870,7 @@
         <v>1000</v>
       </c>
       <c r="H17">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="I17">
         <v>2</v>
@@ -1885,7 +1885,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1893,16 +1893,16 @@
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="1" t="s">
-        <v>28</v>
+        <v>111</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="E18">
         <v>10</v>
@@ -1911,42 +1911,42 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1300</v>
+        <v>2500</v>
       </c>
       <c r="H18">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="1" t="s">
-        <v>30</v>
+        <v>179</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>82</v>
+        <v>180</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>25</v>
+        <v>181</v>
       </c>
       <c r="E19">
         <v>10</v>
@@ -1955,45 +1955,45 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1900</v>
+        <v>2800</v>
       </c>
       <c r="H19">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="1" t="s">
-        <v>46</v>
+        <v>123</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>17</v>
+        <v>125</v>
       </c>
       <c r="E20">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -2002,39 +2002,39 @@
         <v>2000</v>
       </c>
       <c r="H20">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="I20">
+        <v>4</v>
+      </c>
+      <c r="J20">
+        <v>4</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
         <v>3</v>
-      </c>
-      <c r="J20">
-        <v>1</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="1" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="E21">
         <v>10</v>
@@ -2043,22 +2043,22 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="H21">
-        <v>1600</v>
+        <v>2200</v>
       </c>
       <c r="I21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -2069,16 +2069,16 @@
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="1" t="s">
-        <v>86</v>
+        <v>191</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>87</v>
+        <v>192</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>148</v>
+        <v>193</v>
       </c>
       <c r="E22">
         <v>10</v>
@@ -2087,16 +2087,16 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="H22">
-        <v>1500</v>
+        <v>2800</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2105,7 +2105,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -2113,16 +2113,16 @@
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="1" t="s">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="E23">
         <v>10</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="H23">
-        <v>2200</v>
+        <v>1300</v>
       </c>
       <c r="I23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J23">
         <v>2</v>
@@ -2146,13 +2146,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -2201,75 +2201,75 @@
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="1" t="s">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="E25">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="H25">
-        <v>3000</v>
+        <v>1700</v>
       </c>
       <c r="I25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="1" t="s">
-        <v>98</v>
+        <v>158</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>99</v>
+        <v>159</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="E26">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="H26">
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="I26">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J26">
         <v>3</v>
@@ -2281,24 +2281,24 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N26">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="1" t="s">
-        <v>101</v>
+        <v>170</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>102</v>
+        <v>171</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="E27">
         <v>10</v>
@@ -2307,16 +2307,16 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>1000</v>
+        <v>1900</v>
       </c>
       <c r="H27">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="I27">
         <v>3</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2325,7 +2325,7 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -2333,16 +2333,16 @@
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="1" t="s">
-        <v>105</v>
+        <v>141</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>107</v>
+        <v>152</v>
       </c>
       <c r="E28">
         <v>10</v>
@@ -2354,13 +2354,13 @@
         <v>1000</v>
       </c>
       <c r="H28">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="I28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -2377,16 +2377,16 @@
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="1" t="s">
-        <v>108</v>
+        <v>185</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>109</v>
+        <v>186</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>110</v>
+        <v>187</v>
       </c>
       <c r="E29">
         <v>10</v>
@@ -2395,13 +2395,13 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="H29">
-        <v>1600</v>
+        <v>2200</v>
       </c>
       <c r="I29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -2416,89 +2416,89 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="1" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>112</v>
+        <v>155</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>88</v>
+        <v>156</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>113</v>
+        <v>157</v>
       </c>
       <c r="E30">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="H30">
-        <v>3000</v>
+        <v>3700</v>
       </c>
       <c r="I30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J30">
         <v>2</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="1" t="s">
-        <v>116</v>
+        <v>38</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="E31">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="H31">
-        <v>3200</v>
+        <v>1800</v>
       </c>
       <c r="I31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K31">
         <v>1</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M31">
         <v>0</v>
@@ -2509,43 +2509,43 @@
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="1" t="s">
-        <v>117</v>
+        <v>188</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>118</v>
+        <v>189</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>119</v>
+        <v>190</v>
       </c>
       <c r="E32">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="G32">
-        <v>2500</v>
+        <v>3400</v>
       </c>
       <c r="H32">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="I32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J32">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K32">
         <v>1</v>
       </c>
       <c r="L32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2553,16 +2553,16 @@
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="1" t="s">
-        <v>120</v>
+        <v>197</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>121</v>
+        <v>198</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>122</v>
+        <v>199</v>
       </c>
       <c r="E33">
         <v>10</v>
@@ -2571,54 +2571,54 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="H33">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="I33">
+        <v>5</v>
+      </c>
+      <c r="J33">
+        <v>2</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>2</v>
+      </c>
+      <c r="N33">
         <v>4</v>
-      </c>
-      <c r="J33">
-        <v>4</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-      <c r="N33">
-        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E34">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34">
+        <v>1700</v>
+      </c>
+      <c r="H34">
         <v>2000</v>
-      </c>
-      <c r="H34">
-        <v>2800</v>
       </c>
       <c r="I34">
         <v>4</v>
@@ -2636,45 +2636,45 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="1" t="s">
-        <v>130</v>
+        <v>39</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>131</v>
+        <v>73</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="E35">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35">
-        <v>2000</v>
+        <v>1400</v>
       </c>
       <c r="H35">
-        <v>2500</v>
+        <v>1900</v>
       </c>
       <c r="I35">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M35">
         <v>0</v>
@@ -2685,16 +2685,16 @@
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="1" t="s">
-        <v>135</v>
+        <v>40</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>137</v>
+        <v>50</v>
       </c>
       <c r="E36">
         <v>10</v>
@@ -2703,13 +2703,13 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="H36">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="I36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -2724,48 +2724,48 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="1" t="s">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="E37">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="G37">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="H37">
-        <v>3200</v>
+        <v>3500</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2773,16 +2773,16 @@
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="1" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E38">
         <v>10</v>
@@ -2791,7 +2791,7 @@
         <v>0</v>
       </c>
       <c r="G38">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="H38">
         <v>1500</v>
@@ -2809,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="M38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -2817,16 +2817,16 @@
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="1" t="s">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>144</v>
+        <v>75</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>145</v>
+        <v>19</v>
       </c>
       <c r="E39">
         <v>15</v>
@@ -2835,86 +2835,86 @@
         <v>0</v>
       </c>
       <c r="G39">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="H39">
-        <v>1800</v>
+        <v>2500</v>
       </c>
       <c r="I39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M39">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="1" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="E40">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F40">
         <v>0</v>
       </c>
       <c r="G40">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="H40">
         <v>2500</v>
       </c>
       <c r="I40">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M40">
         <v>0</v>
       </c>
       <c r="N40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="1" t="s">
-        <v>150</v>
+        <v>105</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>151</v>
+        <v>106</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>153</v>
+        <v>107</v>
       </c>
       <c r="E41">
         <v>10</v>
@@ -2923,16 +2923,16 @@
         <v>0</v>
       </c>
       <c r="G41">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="H41">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="I41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -2941,7 +2941,7 @@
         <v>0</v>
       </c>
       <c r="M41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N41">
         <v>0</v>
@@ -2949,43 +2949,43 @@
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="1" t="s">
-        <v>154</v>
+        <v>42</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>155</v>
+        <v>76</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>156</v>
+        <v>54</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>157</v>
+        <v>15</v>
       </c>
       <c r="E42">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F42">
         <v>0</v>
       </c>
       <c r="G42">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="H42">
-        <v>3700</v>
+        <v>2500</v>
       </c>
       <c r="I42">
         <v>5</v>
       </c>
       <c r="J42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -2993,60 +2993,60 @@
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="1" t="s">
-        <v>158</v>
+        <v>43</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>159</v>
+        <v>77</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="E43">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F43">
         <v>0</v>
       </c>
       <c r="G43">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="H43">
-        <v>1250</v>
+        <v>3800</v>
       </c>
       <c r="I43">
         <v>5</v>
       </c>
       <c r="J43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K43">
         <v>1</v>
       </c>
       <c r="L43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M43">
         <v>0</v>
       </c>
       <c r="N43">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="1" t="s">
-        <v>161</v>
+        <v>44</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>162</v>
+        <v>78</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>163</v>
+        <v>27</v>
       </c>
       <c r="E44">
         <v>10</v>
@@ -3055,42 +3055,42 @@
         <v>0</v>
       </c>
       <c r="G44">
-        <v>2300</v>
+        <v>1200</v>
       </c>
       <c r="H44">
-        <v>3500</v>
+        <v>2100</v>
       </c>
       <c r="I44">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M44">
         <v>0</v>
       </c>
       <c r="N44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="1" t="s">
-        <v>164</v>
+        <v>101</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>165</v>
+        <v>102</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>166</v>
+        <v>103</v>
       </c>
       <c r="E45">
         <v>10</v>
@@ -3099,13 +3099,13 @@
         <v>0</v>
       </c>
       <c r="G45">
+        <v>1000</v>
+      </c>
+      <c r="H45">
         <v>1500</v>
       </c>
-      <c r="H45">
-        <v>1700</v>
-      </c>
       <c r="I45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -3117,7 +3117,7 @@
         <v>0</v>
       </c>
       <c r="M45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N45">
         <v>0</v>
@@ -3125,87 +3125,87 @@
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="1" t="s">
-        <v>168</v>
+        <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>169</v>
+        <v>12</v>
       </c>
       <c r="E46">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F46">
         <v>0</v>
       </c>
       <c r="G46">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="H46">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="I46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="1" t="s">
-        <v>170</v>
+        <v>98</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>171</v>
+        <v>99</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>172</v>
+        <v>100</v>
       </c>
       <c r="E47">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F47">
         <v>0</v>
       </c>
       <c r="G47">
-        <v>1900</v>
+        <v>3000</v>
       </c>
       <c r="H47">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="I47">
         <v>3</v>
       </c>
       <c r="J47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M47">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N47">
         <v>0</v>
@@ -3213,87 +3213,87 @@
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="1" t="s">
-        <v>173</v>
+        <v>201</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>174</v>
+        <v>200</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>175</v>
+        <v>202</v>
       </c>
       <c r="E48">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F48">
         <v>0</v>
       </c>
       <c r="G48">
-        <v>1700</v>
+        <v>2500</v>
       </c>
       <c r="H48">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="I48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M48">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N48">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="1" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="E49">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F49">
         <v>0</v>
       </c>
       <c r="G49">
-        <v>2700</v>
+        <v>2200</v>
       </c>
       <c r="H49">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="I49">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N49">
         <v>0</v>
@@ -3301,16 +3301,16 @@
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="1" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="E50">
         <v>10</v>
@@ -3319,25 +3319,25 @@
         <v>0</v>
       </c>
       <c r="G50">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="H50">
-        <v>3200</v>
+        <v>1700</v>
       </c>
       <c r="I50">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J50">
         <v>0</v>
       </c>
       <c r="K50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N50">
         <v>0</v>
@@ -3345,43 +3345,43 @@
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="1" t="s">
-        <v>183</v>
+        <v>209</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>182</v>
+        <v>210</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>156</v>
+        <v>59</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>184</v>
+        <v>211</v>
       </c>
       <c r="E51">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F51">
         <v>0</v>
       </c>
       <c r="G51">
-        <v>3000</v>
+        <v>2300</v>
       </c>
       <c r="H51">
-        <v>3800</v>
+        <v>2700</v>
       </c>
       <c r="I51">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J51">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M51">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N51">
         <v>0</v>
@@ -3389,175 +3389,175 @@
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="1" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="E52">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F52">
         <v>0</v>
       </c>
       <c r="G52">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="H52">
-        <v>2200</v>
+        <v>3700</v>
       </c>
       <c r="I52">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N52">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="1" t="s">
-        <v>188</v>
+        <v>86</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>189</v>
+        <v>87</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>190</v>
+        <v>148</v>
       </c>
       <c r="E53">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F53">
         <v>0</v>
       </c>
       <c r="G53">
-        <v>3400</v>
+        <v>1000</v>
       </c>
       <c r="H53">
-        <v>3800</v>
+        <v>1500</v>
       </c>
       <c r="I53">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J53">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M53">
         <v>1</v>
       </c>
       <c r="N53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="1" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="E54">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F54">
         <v>0</v>
       </c>
       <c r="G54">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="H54">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="I54">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J54">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="1" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>88</v>
+        <v>156</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="E55">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F55">
         <v>0</v>
       </c>
       <c r="G55">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="H55">
-        <v>2500</v>
+        <v>3800</v>
       </c>
       <c r="I55">
+        <v>6</v>
+      </c>
+      <c r="J55">
+        <v>4</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="M55">
         <v>3</v>
-      </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-      <c r="K55">
-        <v>0</v>
-      </c>
-      <c r="L55">
-        <v>0</v>
-      </c>
-      <c r="M55">
-        <v>1</v>
       </c>
       <c r="N55">
         <v>0</v>
@@ -3565,31 +3565,31 @@
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="1" t="s">
-        <v>197</v>
+        <v>116</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>198</v>
+        <v>114</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>199</v>
+        <v>115</v>
       </c>
       <c r="E56">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F56">
         <v>0</v>
       </c>
       <c r="G56">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="H56">
-        <v>2500</v>
+        <v>3200</v>
       </c>
       <c r="I56">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J56">
         <v>2</v>
@@ -3601,112 +3601,112 @@
         <v>1</v>
       </c>
       <c r="M56">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N56">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="1" t="s">
-        <v>201</v>
+        <v>29</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>202</v>
+        <v>24</v>
       </c>
       <c r="E57">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F57">
         <v>0</v>
       </c>
       <c r="G57">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="H57">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="I57">
         <v>2</v>
       </c>
       <c r="J57">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N57">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="1" t="s">
-        <v>203</v>
+        <v>28</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>204</v>
+        <v>81</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>205</v>
+        <v>10</v>
       </c>
       <c r="E58">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F58">
         <v>0</v>
       </c>
       <c r="G58">
-        <v>3000</v>
+        <v>1300</v>
       </c>
       <c r="H58">
-        <v>3700</v>
+        <v>1500</v>
       </c>
       <c r="I58">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N58">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="1" t="s">
-        <v>206</v>
+        <v>30</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>207</v>
+        <v>82</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>208</v>
+        <v>25</v>
       </c>
       <c r="E59">
         <v>10</v>
@@ -3715,104 +3715,104 @@
         <v>0</v>
       </c>
       <c r="G59">
-        <v>2700</v>
+        <v>1900</v>
       </c>
       <c r="H59">
-        <v>3100</v>
+        <v>2200</v>
       </c>
       <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
         <v>4</v>
-      </c>
-      <c r="J59">
-        <v>4</v>
-      </c>
-      <c r="K59">
-        <v>0</v>
-      </c>
-      <c r="L59">
-        <v>0</v>
-      </c>
-      <c r="M59">
-        <v>1</v>
-      </c>
-      <c r="N59">
-        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="1" t="s">
-        <v>209</v>
+        <v>46</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>210</v>
+        <v>83</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>211</v>
+        <v>17</v>
       </c>
       <c r="E60">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F60">
         <v>0</v>
       </c>
       <c r="G60">
-        <v>2300</v>
+        <v>2000</v>
       </c>
       <c r="H60">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K60">
         <v>0</v>
       </c>
       <c r="L60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M60">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="1" t="s">
-        <v>212</v>
+        <v>47</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>213</v>
+        <v>84</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>214</v>
+        <v>26</v>
       </c>
       <c r="E61">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F61">
         <v>0</v>
       </c>
       <c r="G61">
-        <v>2350</v>
+        <v>1000</v>
       </c>
       <c r="H61">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="I61">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J61">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K61">
         <v>0</v>
@@ -3821,15 +3821,15 @@
         <v>0</v>
       </c>
       <c r="M61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N61">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:N21">
-    <sortCondition ref="A1"/>
+  <sortState ref="A2:N61">
+    <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Niveaux.xlsx
+++ b/Niveaux.xlsx
@@ -354,9 +354,6 @@
     <t>Fais un Choix</t>
   </si>
   <si>
-    <t>Fc1Chx</t>
-  </si>
-  <si>
     <t>Trois petites plateforme, un endroit pou un slide, un moulin et une porte automarique</t>
   </si>
   <si>
@@ -661,6 +658,9 @@
   </si>
   <si>
     <t>Grande montée, possibilité saut vers pièces</t>
+  </si>
+  <si>
+    <t>Fs1Chx</t>
   </si>
 </sst>
 </file>
@@ -1008,8 +1008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1079,16 +1079,16 @@
     </row>
     <row r="2" spans="1:21">
       <c r="A2" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>207</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E2">
         <v>10</v>
@@ -1126,16 +1126,16 @@
     </row>
     <row r="3" spans="1:21">
       <c r="A3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E3">
         <v>10</v>
@@ -1220,16 +1220,16 @@
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E5">
         <v>15</v>
@@ -1267,16 +1267,16 @@
     </row>
     <row r="6" spans="1:21">
       <c r="A6" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>177</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E6">
         <v>20</v>
@@ -1443,16 +1443,16 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>56</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E10">
         <v>10</v>
@@ -1487,16 +1487,16 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E11">
         <v>15</v>
@@ -1529,22 +1529,22 @@
         <v>1</v>
       </c>
       <c r="P11" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q11" t="s">
         <v>133</v>
       </c>
-      <c r="Q11" t="s">
-        <v>134</v>
-      </c>
       <c r="R11" t="s">
+        <v>125</v>
+      </c>
+      <c r="S11" t="s">
         <v>126</v>
       </c>
-      <c r="S11" t="s">
+      <c r="T11" t="s">
         <v>127</v>
       </c>
-      <c r="T11" t="s">
+      <c r="U11" t="s">
         <v>128</v>
-      </c>
-      <c r="U11" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -1612,16 +1612,16 @@
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E13">
         <v>10</v>
@@ -1675,16 +1675,16 @@
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E14">
         <v>10</v>
@@ -1738,16 +1738,16 @@
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E15">
         <v>15</v>
@@ -1896,13 +1896,13 @@
         <v>111</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>112</v>
+        <v>214</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E18">
         <v>10</v>
@@ -1937,16 +1937,16 @@
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>180</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E19">
         <v>10</v>
@@ -1981,16 +1981,16 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E20">
         <v>15</v>
@@ -2069,16 +2069,16 @@
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E22">
         <v>10</v>
@@ -2245,16 +2245,16 @@
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E26">
         <v>15</v>
@@ -2289,16 +2289,16 @@
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E27">
         <v>10</v>
@@ -2333,16 +2333,16 @@
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E28">
         <v>10</v>
@@ -2377,16 +2377,16 @@
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E29">
         <v>10</v>
@@ -2421,16 +2421,16 @@
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="E30">
         <v>20</v>
@@ -2509,16 +2509,16 @@
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>189</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E32">
         <v>15</v>
@@ -2553,16 +2553,16 @@
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>198</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E33">
         <v>10</v>
@@ -2597,16 +2597,16 @@
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E34">
         <v>10</v>
@@ -2729,16 +2729,16 @@
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>162</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E37">
         <v>10</v>
@@ -2773,16 +2773,16 @@
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E38">
         <v>10</v>
@@ -2861,16 +2861,16 @@
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E40">
         <v>15</v>
@@ -3213,16 +3213,16 @@
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E48">
         <v>20</v>
@@ -3257,16 +3257,16 @@
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E49">
         <v>10</v>
@@ -3301,16 +3301,16 @@
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>165</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E50">
         <v>10</v>
@@ -3345,16 +3345,16 @@
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>210</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E51">
         <v>20</v>
@@ -3389,16 +3389,16 @@
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>204</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E52">
         <v>20</v>
@@ -3442,7 +3442,7 @@
         <v>88</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E53">
         <v>10</v>
@@ -3477,16 +3477,16 @@
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E54">
         <v>20</v>
@@ -3521,16 +3521,16 @@
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="E55">
         <v>30</v>
@@ -3565,16 +3565,16 @@
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E56">
         <v>20</v>

--- a/Niveaux.xlsx
+++ b/Niveaux.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="213">
   <si>
     <t>Niveaux</t>
   </si>
@@ -195,9 +195,6 @@
     <t>2-**</t>
   </si>
   <si>
-    <t>4-*</t>
-  </si>
-  <si>
     <t>3-**</t>
   </si>
   <si>
@@ -393,18 +390,6 @@
     <t>Grotte avec 3 plafonds</t>
   </si>
   <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>**</t>
-  </si>
-  <si>
-    <t>***</t>
-  </si>
-  <si>
-    <t>****</t>
-  </si>
-  <si>
     <t>Portes Mystères</t>
   </si>
   <si>
@@ -414,12 +399,6 @@
     <t>Sucession de portes avec plusieurs switch</t>
   </si>
   <si>
-    <t>Etape</t>
-  </si>
-  <si>
-    <t>NB</t>
-  </si>
-  <si>
     <t>Des hauts et des bas</t>
   </si>
   <si>
@@ -661,6 +640,21 @@
   </si>
   <si>
     <t>Fs1Chx</t>
+  </si>
+  <si>
+    <t>2-***</t>
+  </si>
+  <si>
+    <t>3-** prime</t>
+  </si>
+  <si>
+    <t>4-*****</t>
+  </si>
+  <si>
+    <t>3-***</t>
+  </si>
+  <si>
+    <t>3-** (voire *)</t>
   </si>
 </sst>
 </file>
@@ -1006,10 +1000,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U61"/>
+  <dimension ref="A1:P61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1017,7 +1011,7 @@
     <col min="1" max="1" width="24.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="5.7109375" customWidth="1"/>
     <col min="6" max="8" width="7.7109375" customWidth="1"/>
     <col min="9" max="13" width="5.7109375" customWidth="1"/>
@@ -1030,12 +1024,12 @@
     <col min="21" max="21" width="5.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="45">
+    <row r="1" spans="1:16" ht="45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>51</v>
@@ -1077,18 +1071,18 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>88</v>
+        <v>148</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="E2">
         <v>10</v>
@@ -1121,21 +1115,21 @@
         <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="E3">
         <v>10</v>
@@ -1168,18 +1162,18 @@
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>22</v>
@@ -1191,10 +1185,10 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1300</v>
+        <v>2500</v>
       </c>
       <c r="H4">
-        <v>1600</v>
+        <v>3000</v>
       </c>
       <c r="I4">
         <v>3</v>
@@ -1215,21 +1209,21 @@
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>88</v>
+        <v>148</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="E5">
         <v>15</v>
@@ -1238,10 +1232,10 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2350</v>
+        <v>2700</v>
       </c>
       <c r="H5">
-        <v>2500</v>
+        <v>3100</v>
       </c>
       <c r="I5">
         <v>7</v>
@@ -1262,21 +1256,21 @@
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="E6">
         <v>20</v>
@@ -1309,18 +1303,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:16">
       <c r="A7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="E7">
         <v>15</v>
@@ -1353,12 +1347,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:16">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>52</v>
@@ -1397,12 +1391,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>52</v>
@@ -1417,10 +1411,10 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1200</v>
+        <v>2300</v>
       </c>
       <c r="H9">
-        <v>1400</v>
+        <v>2800</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1441,18 +1435,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>56</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="E10">
         <v>10</v>
@@ -1461,10 +1455,10 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2000</v>
+        <v>2900</v>
       </c>
       <c r="H10">
-        <v>2300</v>
+        <v>3200</v>
       </c>
       <c r="I10">
         <v>2</v>
@@ -1485,18 +1479,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>59</v>
+        <v>148</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E11">
         <v>15</v>
@@ -1508,7 +1502,7 @@
         <v>2400</v>
       </c>
       <c r="H11">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -1528,31 +1522,13 @@
       <c r="N11">
         <v>1</v>
       </c>
-      <c r="P11" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>133</v>
-      </c>
-      <c r="R11" t="s">
-        <v>125</v>
-      </c>
-      <c r="S11" t="s">
-        <v>126</v>
-      </c>
-      <c r="T11" t="s">
-        <v>127</v>
-      </c>
-      <c r="U11" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21">
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>53</v>
@@ -1567,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="H12">
-        <v>2200</v>
+        <v>3200</v>
       </c>
       <c r="I12">
         <v>4</v>
@@ -1590,38 +1566,19 @@
       <c r="N12">
         <v>0</v>
       </c>
-      <c r="P12">
-        <v>1</v>
-      </c>
-      <c r="Q12">
-        <f>SUM(R12:U12)</f>
-        <v>16</v>
-      </c>
-      <c r="R12">
-        <v>6</v>
-      </c>
-      <c r="S12">
-        <v>9</v>
-      </c>
-      <c r="T12">
-        <v>1</v>
-      </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21">
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="1" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="E13">
         <v>10</v>
@@ -1630,10 +1587,10 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1700</v>
+        <v>2700</v>
       </c>
       <c r="H13">
-        <v>1800</v>
+        <v>3100</v>
       </c>
       <c r="I13">
         <v>3</v>
@@ -1653,38 +1610,19 @@
       <c r="N13">
         <v>0</v>
       </c>
-      <c r="P13">
-        <v>2</v>
-      </c>
-      <c r="Q13">
-        <f t="shared" ref="Q13:Q14" si="0">SUM(R13:U13)</f>
-        <v>8</v>
-      </c>
-      <c r="R13">
-        <v>2</v>
-      </c>
-      <c r="S13">
-        <v>6</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21">
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E14">
         <v>10</v>
@@ -1716,38 +1654,19 @@
       <c r="N14">
         <v>1</v>
       </c>
-      <c r="P14">
-        <v>3</v>
-      </c>
-      <c r="Q14">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="R14">
-        <v>3</v>
-      </c>
-      <c r="S14">
-        <v>10</v>
-      </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21">
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="1" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>88</v>
+        <v>148</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E15">
         <v>15</v>
@@ -1756,10 +1675,10 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="H15">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="I15">
         <v>2</v>
@@ -1779,32 +1698,13 @@
       <c r="N15">
         <v>0</v>
       </c>
-      <c r="P15">
-        <v>4</v>
-      </c>
-      <c r="Q15">
-        <f>SUM(R15:U15)</f>
-        <v>23</v>
-      </c>
-      <c r="R15">
-        <v>7</v>
-      </c>
-      <c r="S15">
-        <v>13</v>
-      </c>
-      <c r="T15">
-        <v>2</v>
-      </c>
-      <c r="U15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21">
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>52</v>
@@ -1819,10 +1719,10 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="H16">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -1841,25 +1741,21 @@
       </c>
       <c r="N16">
         <v>0</v>
-      </c>
-      <c r="Q16">
-        <f>SUM(Q12:Q15)</f>
-        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="E17">
         <v>10</v>
       </c>
@@ -1867,10 +1763,10 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1000</v>
+        <v>2800</v>
       </c>
       <c r="H17">
-        <v>1600</v>
+        <v>3200</v>
       </c>
       <c r="I17">
         <v>2</v>
@@ -1893,16 +1789,16 @@
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="E18">
         <v>10</v>
@@ -1937,16 +1833,16 @@
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="E19">
         <v>10</v>
@@ -1981,16 +1877,16 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="E20">
         <v>15</v>
@@ -1999,10 +1895,10 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="H20">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="I20">
         <v>4</v>
@@ -2020,21 +1916,21 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E21">
         <v>10</v>
@@ -2043,10 +1939,10 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1800</v>
+        <v>2500</v>
       </c>
       <c r="H21">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="I21">
         <v>4</v>
@@ -2069,16 +1965,16 @@
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>88</v>
+        <v>148</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="E22">
         <v>10</v>
@@ -2090,7 +1986,7 @@
         <v>2000</v>
       </c>
       <c r="H22">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="I22">
         <v>3</v>
@@ -2131,10 +2027,10 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1000</v>
+        <v>2900</v>
       </c>
       <c r="H23">
-        <v>1300</v>
+        <v>3400</v>
       </c>
       <c r="I23">
         <v>2</v>
@@ -2157,16 +2053,16 @@
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="E24">
         <v>15</v>
@@ -2175,10 +2071,10 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="H24">
-        <v>4200</v>
+        <v>3000</v>
       </c>
       <c r="I24">
         <v>4</v>
@@ -2204,7 +2100,7 @@
         <v>37</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>53</v>
@@ -2219,10 +2115,10 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1500</v>
+        <v>2100</v>
       </c>
       <c r="H25">
-        <v>1700</v>
+        <v>2600</v>
       </c>
       <c r="I25">
         <v>2</v>
@@ -2245,16 +2141,16 @@
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="1" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="E26">
         <v>15</v>
@@ -2289,16 +2185,16 @@
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="1" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>88</v>
+        <v>148</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="E27">
         <v>10</v>
@@ -2307,10 +2203,10 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>1900</v>
+        <v>2500</v>
       </c>
       <c r="H27">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="I27">
         <v>3</v>
@@ -2333,16 +2229,16 @@
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="1" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E28">
         <v>10</v>
@@ -2351,10 +2247,10 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="H28">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="I28">
         <v>2</v>
@@ -2377,16 +2273,16 @@
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="1" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>60</v>
+        <v>212</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="E29">
         <v>10</v>
@@ -2395,10 +2291,10 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>1500</v>
+        <v>2200</v>
       </c>
       <c r="H29">
-        <v>2200</v>
+        <v>2900</v>
       </c>
       <c r="I29">
         <v>3</v>
@@ -2421,16 +2317,16 @@
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="1" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>155</v>
+        <v>103</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="E30">
         <v>20</v>
@@ -2468,13 +2364,13 @@
         <v>38</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E31">
         <v>10</v>
@@ -2483,10 +2379,10 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="H31">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="I31">
         <v>4</v>
@@ -2509,16 +2405,16 @@
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>88</v>
+        <v>148</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="E32">
         <v>15</v>
@@ -2553,19 +2449,19 @@
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="1" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>88</v>
+        <v>148</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="E33">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -2597,16 +2493,16 @@
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E34">
         <v>10</v>
@@ -2615,10 +2511,10 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>1700</v>
+        <v>3000</v>
       </c>
       <c r="H34">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="I34">
         <v>4</v>
@@ -2644,7 +2540,7 @@
         <v>39</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>53</v>
@@ -2659,10 +2555,10 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <v>1400</v>
+        <v>2800</v>
       </c>
       <c r="H35">
-        <v>1900</v>
+        <v>3000</v>
       </c>
       <c r="I35">
         <v>6</v>
@@ -2688,7 +2584,7 @@
         <v>40</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>53</v>
@@ -2703,10 +2599,10 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="H36">
-        <v>2200</v>
+        <v>3200</v>
       </c>
       <c r="I36">
         <v>3</v>
@@ -2729,16 +2625,16 @@
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="1" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="E37">
         <v>10</v>
@@ -2747,7 +2643,7 @@
         <v>0</v>
       </c>
       <c r="G37">
-        <v>2300</v>
+        <v>3000</v>
       </c>
       <c r="H37">
         <v>3500</v>
@@ -2773,16 +2669,16 @@
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="1" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>88</v>
+        <v>148</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E38">
         <v>10</v>
@@ -2791,10 +2687,10 @@
         <v>0</v>
       </c>
       <c r="G38">
-        <v>1200</v>
+        <v>2800</v>
       </c>
       <c r="H38">
-        <v>1500</v>
+        <v>3100</v>
       </c>
       <c r="I38">
         <v>2</v>
@@ -2820,10 +2716,10 @@
         <v>41</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>19</v>
@@ -2835,10 +2731,10 @@
         <v>0</v>
       </c>
       <c r="G39">
-        <v>2000</v>
+        <v>2900</v>
       </c>
       <c r="H39">
-        <v>2500</v>
+        <v>3200</v>
       </c>
       <c r="I39">
         <v>3</v>
@@ -2861,16 +2757,16 @@
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E40">
         <v>15</v>
@@ -2879,10 +2775,10 @@
         <v>0</v>
       </c>
       <c r="G40">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="H40">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="I40">
         <v>5</v>
@@ -2905,16 +2801,16 @@
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E41">
         <v>10</v>
@@ -2923,10 +2819,10 @@
         <v>0</v>
       </c>
       <c r="G41">
-        <v>1000</v>
+        <v>2200</v>
       </c>
       <c r="H41">
-        <v>2500</v>
+        <v>3100</v>
       </c>
       <c r="I41">
         <v>3</v>
@@ -2952,7 +2848,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>54</v>
@@ -2967,10 +2863,10 @@
         <v>0</v>
       </c>
       <c r="G42">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="H42">
-        <v>2500</v>
+        <v>3100</v>
       </c>
       <c r="I42">
         <v>5</v>
@@ -2996,10 +2892,10 @@
         <v>43</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>58</v>
+        <v>208</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>18</v>
@@ -3014,7 +2910,7 @@
         <v>2000</v>
       </c>
       <c r="H43">
-        <v>3800</v>
+        <v>2800</v>
       </c>
       <c r="I43">
         <v>5</v>
@@ -3040,7 +2936,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>58</v>
@@ -3055,10 +2951,10 @@
         <v>0</v>
       </c>
       <c r="G44">
-        <v>1200</v>
+        <v>2500</v>
       </c>
       <c r="H44">
-        <v>2100</v>
+        <v>3000</v>
       </c>
       <c r="I44">
         <v>4</v>
@@ -3081,16 +2977,16 @@
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E45">
         <v>10</v>
@@ -3099,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="G45">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="H45">
-        <v>1500</v>
+        <v>2800</v>
       </c>
       <c r="I45">
         <v>3</v>
@@ -3128,7 +3024,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>52</v>
@@ -3143,10 +3039,10 @@
         <v>0</v>
       </c>
       <c r="G46">
-        <v>1500</v>
+        <v>2700</v>
       </c>
       <c r="H46">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="I46">
         <v>3</v>
@@ -3169,16 +3065,16 @@
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="C47" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="E47">
         <v>40</v>
@@ -3213,16 +3109,16 @@
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="1" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="E48">
         <v>20</v>
@@ -3257,16 +3153,16 @@
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="1" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="E49">
         <v>10</v>
@@ -3301,16 +3197,16 @@
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="1" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E50">
         <v>10</v>
@@ -3319,10 +3215,10 @@
         <v>0</v>
       </c>
       <c r="G50">
-        <v>1500</v>
+        <v>2900</v>
       </c>
       <c r="H50">
-        <v>1700</v>
+        <v>3300</v>
       </c>
       <c r="I50">
         <v>2</v>
@@ -3345,16 +3241,16 @@
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="1" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>59</v>
+        <v>148</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="E51">
         <v>20</v>
@@ -3389,16 +3285,16 @@
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="1" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>88</v>
+        <v>148</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="E52">
         <v>20</v>
@@ -3433,16 +3329,16 @@
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="D53" s="1" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="E53">
         <v>10</v>
@@ -3451,10 +3347,10 @@
         <v>0</v>
       </c>
       <c r="G53">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="H53">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="I53">
         <v>1</v>
@@ -3477,16 +3373,16 @@
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="1" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="E54">
         <v>20</v>
@@ -3521,16 +3417,16 @@
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="1" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>155</v>
+        <v>103</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="E55">
         <v>30</v>
@@ -3565,16 +3461,16 @@
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E56">
         <v>20</v>
@@ -3612,10 +3508,10 @@
         <v>29</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>59</v>
+        <v>148</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>24</v>
@@ -3627,10 +3523,10 @@
         <v>0</v>
       </c>
       <c r="G57">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="H57">
-        <v>1500</v>
+        <v>2800</v>
       </c>
       <c r="I57">
         <v>2</v>
@@ -3656,7 +3552,7 @@
         <v>28</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>52</v>
@@ -3671,10 +3567,10 @@
         <v>0</v>
       </c>
       <c r="G58">
-        <v>1300</v>
+        <v>2000</v>
       </c>
       <c r="H58">
-        <v>1500</v>
+        <v>2300</v>
       </c>
       <c r="I58">
         <v>1</v>
@@ -3700,7 +3596,7 @@
         <v>30</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>56</v>
@@ -3715,10 +3611,10 @@
         <v>0</v>
       </c>
       <c r="G59">
-        <v>1900</v>
+        <v>2800</v>
       </c>
       <c r="H59">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="I59">
         <v>0</v>
@@ -3744,10 +3640,10 @@
         <v>46</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>60</v>
+        <v>209</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>17</v>
@@ -3788,7 +3684,7 @@
         <v>47</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>53</v>
@@ -3803,10 +3699,10 @@
         <v>0</v>
       </c>
       <c r="G61">
-        <v>1000</v>
+        <v>2200</v>
       </c>
       <c r="H61">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="I61">
         <v>3</v>
